--- a/Process Results/Unified_Claims_Liability_Summary.xlsx
+++ b/Process Results/Unified_Claims_Liability_Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joranias\Documents\GitHub\DMI_IBNP\Process Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1071380C-9EB1-48C6-BEA4-B404CEA50C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6AA293-C201-4601-AAFA-3A65D40562F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{9B94C235-4B85-4887-832D-FBC296CFB081}"/>
   </bookViews>
@@ -186,9 +186,6 @@
     <t>Threshold</t>
   </si>
   <si>
-    <t>Patterns calculation difference. Small premium difference</t>
-  </si>
-  <si>
     <t>We are removing all 10k+ claims. Unified is only removing some</t>
   </si>
   <si>
@@ -207,13 +204,16 @@
     <t>Unified is not excludng LOB 51 for newer periods and LOB 51 premiums</t>
   </si>
   <si>
-    <t>Unified is not excluding LOB 51 premiums</t>
-  </si>
-  <si>
     <t>129k difference in paid and 1M difference in premiums.I can't track the reason since original file inputs are harcoded.</t>
   </si>
   <si>
     <t>Differences y paid because we are excluding claims over 30k they are mannually adjusting ultimate for 2 LL. Also some smal allocation between MS and NMS differences.</t>
+  </si>
+  <si>
+    <t>Unified is selected IEL Method for 5 months instead of 3</t>
+  </si>
+  <si>
+    <t>Patterns calculation difference. Small premium difference. Unified put hardcoded patterns</t>
   </si>
 </sst>
 </file>
@@ -264,7 +264,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -280,12 +280,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,7 +330,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -438,7 +432,7 @@
       <sheetData sheetId="1">
         <row r="33">
           <cell r="H33">
-            <v>5654.5471461544121</v>
+            <v>43247.547146154408</v>
           </cell>
         </row>
       </sheetData>
@@ -508,7 +502,7 @@
       <sheetName val="Summary"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="33">
           <cell r="H33">
@@ -573,7 +567,7 @@
       <sheetName val="Summary"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="33">
           <cell r="H33">
@@ -632,7 +626,7 @@
       <sheetName val="Summary"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="33">
           <cell r="H33">
@@ -704,11 +698,11 @@
       <sheetName val="Summary"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="33">
           <cell r="H33">
-            <v>9900.0036</v>
+            <v>14529.0036</v>
           </cell>
         </row>
       </sheetData>
@@ -741,11 +735,6 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5">
-        <row r="8">
-          <cell r="B8">
-            <v>199.38</v>
-          </cell>
-        </row>
         <row r="35">
           <cell r="H35">
             <v>7.4999999999999997E-2</v>
@@ -921,7 +910,7 @@
       <sheetName val="Summary"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="33">
           <cell r="H33">
@@ -981,7 +970,7 @@
       <sheetName val="Summary"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="33">
           <cell r="H33">
@@ -1053,7 +1042,7 @@
       <sheetName val="Summary"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="33">
           <cell r="H33">
@@ -1123,7 +1112,7 @@
       <sheetName val="Summary"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="33">
           <cell r="H33">
@@ -1197,7 +1186,7 @@
       <sheetName val="Summary"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="33">
           <cell r="H33">
@@ -1529,8 +1518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12C38D66-6A3A-466E-8973-92ABD33CCFF7}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
@@ -1583,7 +1572,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1616,7 +1605,7 @@
         <v>0.71681877097118651</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="L2" t="s">
         <v>23</v>
@@ -1698,7 +1687,7 @@
         <v>0.10935067540096274</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
@@ -1740,7 +1729,7 @@
         <v>0.17711958425008908</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
@@ -1786,7 +1775,7 @@
         <v>24</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="34.5" x14ac:dyDescent="0.25">
@@ -1795,7 +1784,7 @@
       </c>
       <c r="B7" s="10">
         <f>+[11]Summary!$H$33</f>
-        <v>5654.5471461544121</v>
+        <v>43247.547146154408</v>
       </c>
       <c r="C7" s="3">
         <f>+[12]Summary!$H$35</f>
@@ -1803,11 +1792,11 @@
       </c>
       <c r="D7" s="9">
         <f t="shared" si="0"/>
-        <v>424.09103596158087</v>
+        <v>3243.5660359615804</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" si="1"/>
-        <v>6078.638182115993</v>
+        <v>46491.113182115987</v>
       </c>
       <c r="G7" s="10">
         <f>+[12]Summary!$H$36</f>
@@ -1815,14 +1804,14 @@
       </c>
       <c r="H7" s="10">
         <f t="shared" si="2"/>
-        <v>-37862.721817884005</v>
+        <v>2549.7531821159864</v>
       </c>
       <c r="I7" s="11">
         <f t="shared" si="3"/>
-        <v>-0.86166476908962319</v>
+        <v>5.8026269148610476E-2</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L7" t="s">
         <v>24</v>
@@ -1864,7 +1853,7 @@
         <v>5.1513363528159557E-2</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L8" t="s">
         <v>24</v>
@@ -1906,13 +1895,13 @@
         <v>-2.1400684948015197E-2</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L9" t="s">
         <v>24</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="69" x14ac:dyDescent="0.25">
@@ -1948,7 +1937,7 @@
         <v>-3.2761096362489688E-2</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L10" t="s">
         <v>24</v>
@@ -2011,7 +2000,7 @@
       </c>
       <c r="B13" s="10">
         <f>+[19]Summary!$H$33</f>
-        <v>9900.0036</v>
+        <v>14529.0036</v>
       </c>
       <c r="C13" s="3">
         <f>+[20]Summary!$H$35</f>
@@ -2019,11 +2008,11 @@
       </c>
       <c r="D13" s="9">
         <f t="shared" si="0"/>
-        <v>742.50027</v>
+        <v>1089.67527</v>
       </c>
       <c r="E13" s="9">
         <f t="shared" si="1"/>
-        <v>10642.50387</v>
+        <v>15618.67887</v>
       </c>
       <c r="G13" s="10">
         <f>+[20]Summary!$H$36</f>
@@ -2031,14 +2020,14 @@
       </c>
       <c r="H13" s="10">
         <f t="shared" si="2"/>
-        <v>-12282.608844356808</v>
+        <v>-7306.4338443568085</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" si="3"/>
-        <v>-0.53577092498502077</v>
+        <v>-0.31870874247790149</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L13" t="s">
         <v>24</v>
@@ -2101,19 +2090,19 @@
         <v>76194.330534630906</v>
       </c>
       <c r="G15" s="10">
-        <f ca="1">+[23]Summary!$L$36</f>
+        <f>+[23]Summary!$L$36</f>
         <v>70721.566596096614</v>
       </c>
       <c r="H15" s="10">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>5472.7639385342918</v>
       </c>
       <c r="I15" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>7.738465367700656E-2</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L15" t="s">
         <v>28</v>
@@ -2155,7 +2144,7 @@
         <v>7.5591235456965181E-2</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L16" t="s">
         <v>24</v>
@@ -2174,29 +2163,29 @@
       </c>
       <c r="B18" s="7">
         <f>+SUM(B2:B17)</f>
-        <v>1421633.9361773338</v>
+        <v>1463855.9361773338</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="7">
         <f>+SUM(D2:D17)</f>
-        <v>106622.54521330002</v>
+        <v>109789.19521330003</v>
       </c>
       <c r="E18" s="7">
         <f>+SUM(E2:E17)</f>
-        <v>1528256.4813906339</v>
+        <v>1573645.1313906338</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="7">
-        <f ca="1">+SUM(G2:G17)</f>
+        <f>+SUM(G2:G17)</f>
         <v>1483341.0326031842</v>
       </c>
       <c r="H18" s="7">
-        <f ca="1">+SUM(H2:H17)</f>
-        <v>44915.448787449815</v>
+        <f>+SUM(H2:H17)</f>
+        <v>90304.09878744981</v>
       </c>
       <c r="I18" s="11">
-        <f ca="1">+H18/G18</f>
-        <v>3.0279920665732277E-2</v>
+        <f>+H18/G18</f>
+        <v>6.0878851729039639E-2</v>
       </c>
       <c r="J18" s="12"/>
     </row>
